--- a/xlsx/工業革命_intext.xlsx
+++ b/xlsx/工業革命_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Industrial Revolution</t>
   </si>
   <si>
-    <t>政策_政策_美國_工業革命</t>
+    <t>体育运动_体育运动_技术_工業革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%99%A8</t>
